--- a/scilly/scilly_pressure_ditigised1876.xlsx
+++ b/scilly/scilly_pressure_ditigised1876.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/scilly/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A369C51F-4B46-E342-B5E6-34D04B0CBB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15135" windowHeight="5835" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="15140" windowHeight="10720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jan1876" sheetId="1" r:id="rId1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,9 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -82,11 +87,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -98,14 +98,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,20 +391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -414,8 +417,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -428,8 +431,8 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -442,8 +445,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -456,8 +459,8 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -470,8 +473,8 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -484,8 +487,8 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -498,8 +501,8 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -512,8 +515,8 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -526,8 +529,8 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -540,8 +543,8 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -554,8 +557,8 @@
         <v>30.38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -568,8 +571,8 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -582,8 +585,8 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -596,8 +599,8 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -610,8 +613,8 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -624,8 +627,8 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -638,8 +641,8 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -652,8 +655,8 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -666,8 +669,8 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -680,8 +683,8 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -694,8 +697,8 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -708,8 +711,8 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -722,8 +725,8 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -736,8 +739,8 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -750,8 +753,8 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -764,8 +767,8 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
@@ -778,8 +781,8 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
@@ -792,8 +795,8 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
@@ -806,8 +809,8 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
@@ -820,8 +823,8 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
@@ -834,8 +837,8 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
@@ -855,20 +858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -881,470 +884,439 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>29.57</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>29.88</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>29.92</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>29.88</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>29.82</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>29.78</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>29.75</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>29.71</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>29.72</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>29.74</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>29.73</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>29.67</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>29.75</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>29.73</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>29.72</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>29.71</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>29.76</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>29.8</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>29.84</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>29.89</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>29.92</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>29.79</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>29.73</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>29.67</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>29.64</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>29.64</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>29.6</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>29.56</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>29.51</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>29.48</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>29.08</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>29.18</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>29.22</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>29.55</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>29.5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>29.5</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>29.57</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>29.64</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>29.66</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>29.61</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>29.8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>29.85</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>29.88</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>29.84</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>29.79</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>29.47</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>29.41</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>29.38</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>29.52</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>29.53</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>29.53</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>29.63</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>29.65</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>29.67</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>29.78</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>29.81</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>29.83</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>29.98</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>30.01</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>30.03</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>30.08</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>30.07</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>30.09</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>30.09</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>30.06</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>30.06</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>30.06</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>30.07</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>30.07</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>30.09</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>30.11</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>30.14</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>30.22</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>30.23</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>30.22</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>30.19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>30.19</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>30.13</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>30.13</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>30.13</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>30.14</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>30.22</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>30.25</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>30.25</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>30.27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>30.28</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>30.29</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>30.3</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>30.31</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>30.31</v>
       </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>30.31</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>30.31</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>30.3</v>
       </c>
-      <c r="E32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1352,20 +1324,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -1378,8 +1350,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1392,8 +1364,8 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1406,8 +1378,8 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1420,8 +1392,8 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1434,8 +1406,8 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1448,8 +1420,8 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1462,8 +1434,8 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1476,8 +1448,8 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1490,8 +1462,8 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1504,8 +1476,8 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1518,8 +1490,8 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1532,8 +1504,8 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1546,8 +1518,8 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1560,8 +1532,8 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1574,8 +1546,8 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1588,8 +1560,8 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1602,8 +1574,8 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1616,8 +1588,8 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1630,8 +1602,8 @@
         <v>29.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1644,8 +1616,8 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1658,8 +1630,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1672,8 +1644,8 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1686,8 +1658,8 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1700,8 +1672,8 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1714,8 +1686,8 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1728,40 +1700,40 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>29.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>29.29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>29.61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>29.61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1780,20 +1752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -1806,8 +1778,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1820,8 +1792,8 @@
         <v>28.96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1834,8 +1806,8 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1848,8 +1820,8 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1862,8 +1834,8 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1876,8 +1848,8 @@
         <v>28.68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1890,8 +1862,8 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1904,8 +1876,8 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1918,8 +1890,8 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1932,8 +1904,8 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1946,8 +1918,8 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1960,8 +1932,8 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1974,8 +1946,8 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1988,8 +1960,8 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2002,8 +1974,8 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2016,8 +1988,8 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2030,8 +2002,8 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2044,8 +2016,8 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2058,8 +2030,8 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2072,8 +2044,8 @@
         <v>28.73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2086,8 +2058,8 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2100,8 +2072,8 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2114,8 +2086,8 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2128,8 +2100,8 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2142,8 +2114,8 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2156,8 +2128,8 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2170,8 +2142,8 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2184,8 +2156,8 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2198,8 +2170,8 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2212,8 +2184,8 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2226,8 +2198,8 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2246,20 +2218,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -2272,8 +2244,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2286,8 +2258,8 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2300,8 +2272,8 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2314,8 +2286,8 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2328,8 +2300,8 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2342,8 +2314,8 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2356,8 +2328,8 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2370,8 +2342,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2384,8 +2356,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2398,8 +2370,8 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2412,8 +2384,8 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2426,8 +2398,8 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2440,8 +2412,8 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2454,8 +2426,8 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2468,8 +2440,8 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2482,8 +2454,8 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2496,8 +2468,8 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2510,8 +2482,8 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2524,8 +2496,8 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2538,8 +2510,8 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2552,8 +2524,8 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2566,8 +2538,8 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2580,8 +2552,8 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2594,8 +2566,8 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2608,8 +2580,8 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2622,8 +2594,8 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2636,8 +2608,8 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2650,8 +2622,8 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2664,8 +2636,8 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2684,20 +2656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -2710,8 +2682,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2724,8 +2696,8 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2738,8 +2710,8 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2752,8 +2724,8 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2766,8 +2738,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2780,8 +2752,8 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2794,8 +2766,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2808,8 +2780,8 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2822,8 +2794,8 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2836,8 +2808,8 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2847,37 +2819,29 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <v>29.32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <v>28.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
-        <v>29.86</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15">
         <v>29.85</v>
       </c>
@@ -2885,11 +2849,11 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>29.51</v>
       </c>
       <c r="C16">
@@ -2899,11 +2863,11 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>29.79</v>
       </c>
       <c r="C17">
@@ -2913,11 +2877,11 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>29.89</v>
       </c>
       <c r="C18">
@@ -2927,11 +2891,11 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>30.24</v>
       </c>
       <c r="C19">
@@ -2941,11 +2905,11 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>30.25</v>
       </c>
       <c r="C20">
@@ -2955,11 +2919,11 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>30.2</v>
       </c>
       <c r="C21">
@@ -2969,11 +2933,11 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>29.8</v>
       </c>
       <c r="C22">
@@ -2983,11 +2947,11 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>29.85</v>
       </c>
       <c r="C23">
@@ -2997,11 +2961,11 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>30</v>
       </c>
       <c r="C24">
@@ -3011,11 +2975,11 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>29.61</v>
       </c>
       <c r="C25">
@@ -3025,11 +2989,11 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>29.5</v>
       </c>
       <c r="C26">
@@ -3039,11 +3003,11 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>29.54</v>
       </c>
       <c r="C27">
@@ -3053,11 +3017,11 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>29.31</v>
       </c>
       <c r="C28">
@@ -3067,11 +3031,11 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>29.06</v>
       </c>
       <c r="C29">
@@ -3081,11 +3045,11 @@
         <v>29.18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>29.27</v>
       </c>
       <c r="C30">
@@ -3095,11 +3059,11 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>29.49</v>
       </c>
       <c r="C31">
@@ -3109,11 +3073,11 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>29.55</v>
       </c>
       <c r="C32">
@@ -3129,20 +3093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3155,419 +3119,415 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>29.74</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>29.81</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>29.87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>29.98</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>30.03</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>30.07</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>30.16</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>30.23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>30.24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>30.4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>30.47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>30.49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>30.52</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>30.52</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>30.49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>30.42</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>30.38</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>30.35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>30.27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>30.2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>30.17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>30.02</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>29.96</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>29.96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>29.95</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>29.94</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>29.89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>29.48</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>29.43</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>29.57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>29.83</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>29.96</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>29.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>30.07</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>30.15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>30.18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>29.85</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>29.89</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>29.92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>30.05</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>30.11</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>30.13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>30.24</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>30.23</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>30.24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>30.13</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>30.08</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>30.02</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>29.53</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>29.34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>29.16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>28.99</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>28.9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>28.87</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>28.96</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>29.18</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>29.47</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>29.6</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>29.68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>29.89</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>29.96</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>29.96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>29.88</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>29.9</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>29.92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>29.94</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>29.95</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>29.97</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>30.17</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>30.25</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>30.3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>30.23</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>30.16</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>30.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>29.97</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>29.81</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>29.67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>29.54</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>29.47</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>29.41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>29.33</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>29.36</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>29.37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>29.56</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>29.73</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>29.79</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -3578,20 +3538,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3604,445 +3564,442 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>30.04</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>30.11</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>30.14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>30.18</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>30.2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>30.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>30.28</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>30.34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>30.39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>30.45</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>30.46</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>30.43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>30.31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>30.28</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>30.24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>30.22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>30.23</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>30.22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>30.24</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>30.28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>30.29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>30.31</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>30.32</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>30.31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>30.29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>30.29</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>30.26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>30.22</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>30.12</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>30.15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>30.09</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>30.09</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>30.08</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>30.09</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>30.13</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>30.16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>30.26</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>30.29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>30.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>30.2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>30.17</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>30.13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>30.06</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>30.07</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>30.08</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>30.12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>30.12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>30.08</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>30.06</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>30.08</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>30.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>30.18</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>30.22</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>30.22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>30.3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>30.31</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>30.31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>30.32</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>30.31</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>30.27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>30.18</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>30.14</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>30.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>29.94</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>29.91</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>29.91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>29.93</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>29.94</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>29.9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>29.74</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>29.75</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>29.77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>29.87</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>29.93</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>29.95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>30.01</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>30.02</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>30.09</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>30.16</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>30.19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>30.33</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>30.35</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>30.34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>30.31</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>30.3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>30.27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>30.22</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>30.22</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>30.21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>30.19</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>30.23</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>30.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4050,20 +4007,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -4076,8 +4033,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4090,8 +4047,8 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4104,8 +4061,8 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4118,8 +4075,8 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4132,8 +4089,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4146,8 +4103,8 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4160,8 +4117,8 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4174,8 +4131,8 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -4188,8 +4145,8 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4202,8 +4159,8 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4216,8 +4173,8 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4230,8 +4187,8 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4244,8 +4201,8 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4258,8 +4215,8 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4272,8 +4229,8 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4286,8 +4243,8 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4300,8 +4257,8 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4314,8 +4271,8 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4328,8 +4285,8 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4342,8 +4299,8 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4356,8 +4313,8 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4370,8 +4327,8 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4384,8 +4341,8 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
@@ -4398,8 +4355,8 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
@@ -4412,8 +4369,8 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
@@ -4426,8 +4383,8 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27">
@@ -4440,8 +4397,8 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28">
@@ -4454,8 +4411,8 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29">
@@ -4468,8 +4425,8 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30">
@@ -4482,8 +4439,8 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31">
@@ -4502,20 +4459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -4528,450 +4485,439 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>30.04</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>30.05</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>30.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>30.08</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>30.12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>30.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>30.14</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>30.14</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>30.13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>30.12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>30.1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>30.04</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>29.87</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>29.97</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>29.99</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>29.91</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>29.82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>29.81</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>29.8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>29.76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>29.78</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>29.94</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>30.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>30.1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>30.09</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>30.11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>30.16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>30.2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>30.24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>30.35</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>30.39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>30.41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>30.45</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>30.47</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>30.46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>30.42</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>30.41</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>30.41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>30.37</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>30.39</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>30.38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>30.36</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>30.37</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>30.36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>30.32</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>30.31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>30.3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>30.28</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>30.28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>30.28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>30.28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>30.27</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>30.26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>30.25</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>30.27</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>30.26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>30.25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>30.24</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>30.22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>30.16</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>30.14</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>30.11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>30.05</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>30.03</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>30.03</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>30.05</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>30.07</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>30.19</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>30.24</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>30.26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>30.27</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>30.28</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>30.28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>30.19</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>30.14</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>30.09</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>30.1</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>30.13</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>30.08</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>29.8</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>29.78</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>29.82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>30.03</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>30.09</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>30.09</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>30.02</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>29.98</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>29.92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>29.74</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>29.79</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>29.93</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4979,20 +4925,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -5005,8 +4951,8 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -5019,8 +4965,8 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5033,8 +4979,8 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5047,8 +4993,8 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5061,8 +5007,8 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5075,8 +5021,8 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -5089,8 +5035,8 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5103,8 +5049,8 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5117,8 +5063,8 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5131,8 +5077,8 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5145,8 +5091,8 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5159,8 +5105,8 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -5173,8 +5119,8 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -5187,8 +5133,8 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -5201,8 +5147,8 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -5215,8 +5161,8 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -5229,8 +5175,8 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -5243,8 +5189,8 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -5257,8 +5203,8 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -5271,8 +5217,8 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -5285,8 +5231,8 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -5299,8 +5245,8 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -5313,8 +5259,8 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -5327,8 +5273,8 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -5341,8 +5287,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -5355,8 +5301,8 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
@@ -5369,8 +5315,8 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
@@ -5383,8 +5329,8 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
@@ -5397,8 +5343,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
@@ -5411,8 +5357,8 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5425,8 +5371,8 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
@@ -5445,20 +5391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -5471,428 +5417,425 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>29.79</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>29.86</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>29.93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>29.92</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>29.99</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>30.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>29.99</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>29.96</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>29.87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>29.73</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>29.63</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>29.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>29.67</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>29.74</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>29.71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>29.72</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>29.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>29.78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>29.74</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>29.68</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>29.79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>29.86</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>29.94</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>30.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>30.02</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>30.02</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>30.02</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>30.02</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>30.05</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>30.06</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>29.98</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>29.98</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>29.96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>29.89</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>29.91</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>29.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>29.72</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>29.65</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>29.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>29.59</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>29.72</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>29.76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>29.78</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>29.81</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>29.81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>29.92</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>30.03</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>30.07</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>30.24</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>30.28</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>30.3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>30.31</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>30.3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>30.27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>30.15</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>30.08</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>30.04</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>29.88</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>29.82</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>29.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>29.81</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>29.87</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>29.89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>29.54</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>29.58</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>29.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>30.02</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>30.02</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>29.95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>29.63</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>29.74</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>29.76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>29.72</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>29.62</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>29.56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>29.38</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>29.48</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>29.49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>29.69</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>29.68</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>29.62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>29.21</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>29.07</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>29.14</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
